--- a/trend_results/Rivers/RetarukeatWhanganuiConfluence_b5224c7c55.xlsx
+++ b/trend_results/Rivers/RetarukeatWhanganuiConfluence_b5224c7c55.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">

--- a/trend_results/Rivers/RetarukeatWhanganuiConfluence_b5224c7c55.xlsx
+++ b/trend_results/Rivers/RetarukeatWhanganuiConfluence_b5224c7c55.xlsx
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.231216363225238</v>
+        <v>0.768783636774762</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -588,16 +588,16 @@
         <v>0.41</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.0496152663316583</v>
+        <v>0.0322867007401506</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.152341962263455</v>
+        <v>-0.0905953164835239</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0283844921526267</v>
+        <v>0.06859142398971679</v>
       </c>
       <c r="N2" t="n">
-        <v>-12.1012844711362</v>
+        <v>7.87480505857331</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -660,7 +660,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.231216363225238</v>
+        <v>0.59675202974633</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -675,16 +675,16 @@
         <v>111.2</v>
       </c>
       <c r="K3" t="n">
-        <v>-2.39000581478823</v>
+        <v>0.444469079618711</v>
       </c>
       <c r="L3" t="n">
-        <v>-6.95353565091099</v>
+        <v>-5.23510506637395</v>
       </c>
       <c r="M3" t="n">
-        <v>2.19627846213182</v>
+        <v>4.64307616797114</v>
       </c>
       <c r="N3" t="n">
-        <v>-2.14928580466567</v>
+        <v>0.399702409729057</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.231216363225238</v>
+        <v>0.768783636774762</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -762,16 +762,16 @@
         <v>5</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.597839570423953</v>
+        <v>0.362915400033441</v>
       </c>
       <c r="L4" t="n">
-        <v>-2.14533579455548</v>
+        <v>-0.830349856934493</v>
       </c>
       <c r="M4" t="n">
-        <v>0.401639317110025</v>
+        <v>0.957115847805783</v>
       </c>
       <c r="N4" t="n">
-        <v>-11.9567914084791</v>
+        <v>7.25830800066882</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q4" t="n">

--- a/trend_results/Rivers/RetarukeatWhanganuiConfluence_b5224c7c55.xlsx
+++ b/trend_results/Rivers/RetarukeatWhanganuiConfluence_b5224c7c55.xlsx
@@ -103,7 +103,7 @@
     <t>RepSite</t>
   </si>
   <si>
-    <t>Likely improving</t>
+    <t>Extremely likely improving</t>
   </si>
   <si>
     <t>As likely as not improving</t>
@@ -570,7 +570,7 @@
         <v>27</v>
       </c>
       <c r="F2">
-        <v>0.768783636774762</v>
+        <v>0.986256831944245</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -585,16 +585,16 @@
         <v>0.41</v>
       </c>
       <c r="K2">
-        <v>0.0322867007401506</v>
+        <v>0.0645874677835052</v>
       </c>
       <c r="L2">
-        <v>-0.0905953164835239</v>
+        <v>0.0361889093276744</v>
       </c>
       <c r="M2">
-        <v>0.06859142398971679</v>
+        <v>0.07426637713641181</v>
       </c>
       <c r="N2">
-        <v>7.87480505857331</v>
+        <v>15.7530409228061</v>
       </c>
       <c r="O2" t="s">
         <v>28</v>
@@ -650,19 +650,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>111.2</v>
+        <v>112</v>
       </c>
       <c r="K3">
-        <v>0.444469079618711</v>
+        <v>2.53226555652936</v>
       </c>
       <c r="L3">
-        <v>-5.23510506637395</v>
+        <v>-0.49113354555084</v>
       </c>
       <c r="M3">
         <v>4.64307616797114</v>
       </c>
       <c r="N3">
-        <v>0.399702409729057</v>
+        <v>2.26095138975836</v>
       </c>
       <c r="O3" t="s">
         <v>28</v>
@@ -706,7 +706,7 @@
         <v>27</v>
       </c>
       <c r="F4">
-        <v>0.768783636774762</v>
+        <v>0.95679463351315</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -718,19 +718,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5</v>
+        <v>5.597</v>
       </c>
       <c r="K4">
-        <v>0.362915400033441</v>
+        <v>0.837852432077125</v>
       </c>
       <c r="L4">
-        <v>-0.830349856934493</v>
+        <v>0.0070203210240907</v>
       </c>
       <c r="M4">
-        <v>0.957115847805783</v>
+        <v>1.11436775909211</v>
       </c>
       <c r="N4">
-        <v>7.25830800066882</v>
+        <v>14.9696700388981</v>
       </c>
       <c r="O4" t="s">
         <v>28</v>
